--- a/bin/config/xlsx/Mission.xlsx
+++ b/bin/config/xlsx/Mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="30770" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -147,54 +147,6 @@
   </si>
   <si>
     <t>是否自动奖励</t>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[1,6,3,8]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[1,15,19,22,24,23]</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[27,28]</t>
-  </si>
-  <si>
-    <t>[29]</t>
   </si>
 </sst>
 </file>
@@ -894,7 +846,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1144,19 +1096,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="4" width="20.2583333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.8727272727273" customWidth="1"/>
+    <col min="2" max="9" width="20.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,25 +1116,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1207,16 +1174,46 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1241,472 +1238,579 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="8:9">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="K21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
+      <c r="B23">
+        <v>27</v>
       </c>
       <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Mission.xlsx
+++ b/bin/config/xlsx/Mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30770" windowHeight="13280"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>uint32</t>
-  </si>
-  <si>
-    <t>repeated</t>
   </si>
   <si>
     <t>common</t>
@@ -1096,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1108,7 +1105,7 @@
     <col min="2" max="9" width="20.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1145,14 @@
       <c r="M1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1189,109 +1192,98 @@
       <c r="M2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="8:9">
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1374,12 +1366,6 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
       <c r="H12">
         <v>1</v>
       </c>
@@ -1403,11 +1389,6 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
       <c r="H13">
         <v>1</v>
       </c>
@@ -1428,12 +1409,6 @@
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
       <c r="H14">
         <v>1</v>
       </c>
@@ -1488,18 +1463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
       <c r="H16">
         <v>1</v>
       </c>
@@ -1518,19 +1488,20 @@
       <c r="M16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
       <c r="H17">
         <v>1</v>
       </c>
@@ -1549,19 +1520,20 @@
       <c r="M17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
       <c r="H18">
         <v>1</v>
       </c>
@@ -1580,19 +1552,20 @@
       <c r="M18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
       <c r="H19">
         <v>1</v>
       </c>
@@ -1611,19 +1584,20 @@
       <c r="M19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
       <c r="H20">
         <v>1</v>
       </c>
@@ -1640,6 +1614,12 @@
         <v>1</v>
       </c>
       <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20">
         <v>12</v>
       </c>
     </row>
@@ -1650,11 +1630,6 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
       <c r="H21">
         <v>1</v>
       </c>
@@ -1678,11 +1653,6 @@
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
       <c r="H22">
         <v>9</v>
       </c>
@@ -1709,10 +1679,6 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
       <c r="H23">
         <v>3</v>
       </c>
@@ -1736,11 +1702,6 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
       <c r="H24">
         <v>2</v>
       </c>
@@ -1764,11 +1725,6 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
       <c r="H25">
         <v>2</v>
       </c>
@@ -1792,11 +1748,6 @@
       <c r="B26">
         <v>29</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
       <c r="H26">
         <v>2</v>
       </c>

--- a/bin/config/xlsx/Mission.xlsx
+++ b/bin/config/xlsx/Mission.xlsx
@@ -309,12 +309,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Mission.xlsx
+++ b/bin/config/xlsx/Mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="2" r:id="rId1"/>
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B19" sqref="B19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1254,350 +1254,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>24</v>
-      </c>
-      <c r="G15">
-        <v>23</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <v>8</v>
-      </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="N17">
-        <v>9</v>
-      </c>
-      <c r="O17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-      <c r="N18">
-        <v>10</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>11</v>
-      </c>
-      <c r="O19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -1612,32 +1322,38 @@
       </c>
       <c r="L20">
         <v>1</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>12</v>
-      </c>
-      <c r="O20">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1648,16 +1364,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1671,16 +1384,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1697,16 +1407,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1720,47 +1427,340 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>12</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
         <v>16</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
         <v>17</v>
       </c>
-      <c r="B26">
+      <c r="B36">
         <v>29</v>
       </c>
-      <c r="H26">
+      <c r="H36">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>1</v>
       </c>
     </row>

--- a/bin/config/xlsx/Mission.xlsx
+++ b/bin/config/xlsx/Mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowWidth="27130" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -131,6 +131,9 @@
     <t>key</t>
   </si>
   <si>
+    <t>bit_index</t>
+  </si>
+  <si>
     <t>condition表的id</t>
   </si>
   <si>
@@ -309,12 +312,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1096,7 +1099,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:O19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1254,36 +1257,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12">
